--- a/biology/Zoologie/Baruscapillaria_falconis/Baruscapillaria_falconis.xlsx
+++ b/biology/Zoologie/Baruscapillaria_falconis/Baruscapillaria_falconis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baruscapillaria falconis est une espèce de nématodes de la famille des Capillariidae et parasite d'oiseaux.
 </t>
@@ -511,9 +523,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baruscapillaria falconis parasite le gros intestin et l'intestin grêle d'oiseaux[2], et a été retrouvé chez les rapaces suivants[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baruscapillaria falconis parasite le gros intestin et l'intestin grêle d'oiseaux, et a été retrouvé chez les rapaces suivants :
 Aigle pomarin (Clanga pomarina)
 Aigle ravisseur (Aquila rapax)
 Aigle des steppes (Aquila nipalensis)
@@ -570,9 +584,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en 1782 par le zoologiste allemand Johann August Ephraim Goeze sous le protonyme Cucculanus falconis. L'espèce est placée dans le genre Pseudocapillaria par le parasitologiste tchèque František Moravec en 1982 dans sa révision des Capillariidae[4], mais dans le genre Baruscapillaria par Vlastimil Baruš et Tamara Petrovna Sergejeva en 1990[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1782 par le zoologiste allemand Johann August Ephraim Goeze sous le protonyme Cucculanus falconis. L'espèce est placée dans le genre Pseudocapillaria par le parasitologiste tchèque František Moravec en 1982 dans sa révision des Capillariidae, mais dans le genre Baruscapillaria par Vlastimil Baruš et Tamara Petrovna Sergejeva en 1990.
 </t>
         </is>
       </c>
